--- a/templates/WinnersList.xlsx
+++ b/templates/WinnersList.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\turco\source\repos\GalaPresentation\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACB3D0D-C08F-4692-BA6C-3706D02E2113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890A6710-8787-472F-A7CD-C527C3303FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" tabRatio="839" xr2:uid="{49F4F76C-EBC2-44CC-A8DB-D942F0D743B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Prix 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Prix 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,12 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
   <si>
-    <t>Nom</t>
-  </si>
-  <si>
-    <t>Numéro</t>
+    <t>Émile T.</t>
   </si>
 </sst>
 </file>
@@ -441,7 +439,7 @@
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -450,8 +448,8 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
+      <c r="B1" s="2">
+        <v>1111</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -588,4 +586,27 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B4DD94D-A510-4C6B-84EC-1D223C193EB9}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/templates/WinnersList.xlsx
+++ b/templates/WinnersList.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\turco\source\repos\GalaPresentation\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890A6710-8787-472F-A7CD-C527C3303FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D56723-6CDD-4B47-8E41-781B59A07DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" tabRatio="839" xr2:uid="{49F4F76C-EBC2-44CC-A8DB-D942F0D743B2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Prix 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Prix 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Worsheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,9 +36,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
-  <si>
-    <t>Émile T.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>First name</t>
+  </si>
+  <si>
+    <t>Last name</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Prize name</t>
+  </si>
+  <si>
+    <t>Prize category</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Doe</t>
+  </si>
+  <si>
+    <t>Prize 1</t>
+  </si>
+  <si>
+    <t>Prize 1 nominations</t>
+  </si>
+  <si>
+    <t>Prize 1 winners</t>
   </si>
 </sst>
 </file>
@@ -439,62 +468,108 @@
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>1111</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>101</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1111</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>101</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B16" s="2"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.35">
@@ -586,27 +661,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B4DD94D-A510-4C6B-84EC-1D223C193EB9}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>1111</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/templates/WinnersList.xlsx
+++ b/templates/WinnersList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\turco\source\repos\GalaPresentation\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D56723-6CDD-4B47-8E41-781B59A07DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6E5D10-780D-41CA-A5A2-5703D1416045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" tabRatio="839" xr2:uid="{49F4F76C-EBC2-44CC-A8DB-D942F0D743B2}"/>
   </bookViews>
@@ -38,24 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>First name</t>
-  </si>
-  <si>
-    <t>Last name</t>
-  </si>
-  <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>Prize name</t>
-  </si>
-  <si>
-    <t>Prize category</t>
-  </si>
-  <si>
     <t>John</t>
   </si>
   <si>
@@ -65,10 +47,28 @@
     <t>Prize 1</t>
   </si>
   <si>
-    <t>Prize 1 nominations</t>
-  </si>
-  <si>
-    <t>Prize 1 winners</t>
+    <t>nomination</t>
+  </si>
+  <si>
+    <t>winner</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>first name</t>
+  </si>
+  <si>
+    <t>last name</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prize </t>
+  </si>
+  <si>
+    <t>catgeory</t>
   </si>
 </sst>
 </file>
@@ -468,29 +468,29 @@
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -498,19 +498,19 @@
         <v>1111</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>101</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -518,19 +518,19 @@
         <v>1111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>101</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
